--- a/Redes-IA/Redes/Projeto-P1-ipv6/Matheus_148632_TP2_P1_REDES_2020_2.xlsx
+++ b/Redes-IA/Redes/Projeto-P1-ipv6/Matheus_148632_TP2_P1_REDES_2020_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathw\Documents\Github Projects\Faculdade\Redes-IA\Redes\Projeto-P1-ipv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C6548-2981-48D6-9AAC-DAE53FF1CF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A9B373-9FCF-4A84-8FDD-D58FB5AD872F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2340" windowWidth="20730" windowHeight="11310" xr2:uid="{2C35701C-2D34-4D43-813D-D1E50AEE8229}"/>
   </bookViews>
@@ -696,7 +696,102 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,105 +800,10 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F8E78-1813-4E87-9B9A-52F4EBCC8238}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1170,7 @@
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1179,10 +1179,10 @@
       <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="39" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1190,197 +1190,197 @@
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1406,152 +1406,152 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="36">
         <v>2</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="32">
         <v>3</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="9">
         <v>0</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1566,15 +1566,15 @@
       <c r="E25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="4" t="s">
         <v>81</v>
       </c>
@@ -1595,19 +1595,19 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="11">
         <v>0</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="11" t="s">
         <v>108</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -1618,35 +1618,35 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="30" t="s">
         <v>109</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="30">
         <v>5</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="30" t="s">
         <v>57</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="4" t="s">
         <v>113</v>
       </c>
@@ -1658,247 +1658,233 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>1</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="8" t="s">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="8" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <v>0</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="27">
         <v>4</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="13" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="13" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="18">
         <v>0</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="36" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="33" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="36" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="36" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="33" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="36" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="36" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="14" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
@@ -1915,8 +1901,22 @@
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Redes-IA/Redes/Projeto-P1-ipv6/Matheus_148632_TP2_P1_REDES_2020_2.xlsx
+++ b/Redes-IA/Redes/Projeto-P1-ipv6/Matheus_148632_TP2_P1_REDES_2020_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathw\Documents\Github Projects\Faculdade\Redes-IA\Redes\Projeto-P1-ipv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A9B373-9FCF-4A84-8FDD-D58FB5AD872F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EA4FC-D63F-44D4-8A02-E210E12CC8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2340" windowWidth="20730" windowHeight="11310" xr2:uid="{2C35701C-2D34-4D43-813D-D1E50AEE8229}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2C35701C-2D34-4D43-813D-D1E50AEE8229}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
   <si>
     <t>DNS-1-MERCURIO</t>
   </si>
@@ -508,13 +508,25 @@
   </si>
   <si>
     <t>ES-1 ABR|Frame Relay Nuvem 2</t>
+  </si>
+  <si>
+    <t>TP2 P1 REDES 2020-2</t>
+  </si>
+  <si>
+    <t>Redes - IA</t>
+  </si>
+  <si>
+    <t>QUADRO/TABELA DE ENDEREÇAMENTO DE REDES IPV6 E CONFIGURAÇÕES OSPFv3 E FRAME-RELAY</t>
+  </si>
+  <si>
+    <t>Matheus Wintruff Macedo  Ra:148632</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +557,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -609,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -678,133 +704,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,794 +1189,870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F8E78-1813-4E87-9B9A-52F4EBCC8238}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="45">
+        <v>44109</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F4" s="44" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F5" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="4" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="4" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F8" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="5" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="5" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="6" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F13" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="8" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="8" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="9" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="F20" s="46"/>
+      <c r="G20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="6" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="6" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C23" s="5">
         <v>0</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C24" s="23">
         <v>3</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="9" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="9" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="9" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C27" s="6">
         <v>0</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H28" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="4" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C29" s="3">
         <v>0</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C30" s="10">
         <v>0</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C31" s="21">
         <v>5</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D31" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H31" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="4" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="4" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C33" s="35">
         <v>1</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D33" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="5" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="5" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="12" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="5" t="s">
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="5" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C36" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C37" s="38">
         <v>4</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D37" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="8" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="8" t="s">
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="8" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="8" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="8" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="8" t="s">
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H40" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C41" s="29">
         <v>0</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D41" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E41" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="13" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="14" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="14" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="14" t="s">
+      <c r="C44" s="30"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="13" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="14" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="13" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="14" t="s">
+      <c r="C46" s="31"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="13" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="41">
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F5:H7"/>
+    <mergeCell ref="F8:H12"/>
+    <mergeCell ref="F13:H18"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Redes-IA/Redes/Projeto-P1-ipv6/Matheus_148632_TP2_P1_REDES_2020_2.xlsx
+++ b/Redes-IA/Redes/Projeto-P1-ipv6/Matheus_148632_TP2_P1_REDES_2020_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathw\Documents\Github Projects\Faculdade\Redes-IA\Redes\Projeto-P1-ipv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EA4FC-D63F-44D4-8A02-E210E12CC8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8F7D5C-A884-4FC0-9B87-B8055767204A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2C35701C-2D34-4D43-813D-D1E50AEE8229}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="165">
   <si>
     <t>DNS-1-MERCURIO</t>
   </si>
@@ -243,15 +243,9 @@
     <t>6001:DDDD:2468:AAAB::/64</t>
   </si>
   <si>
-    <t>5001:DDDD:9A9B:C4AE::/64</t>
-  </si>
-  <si>
     <t>Espanha</t>
   </si>
   <si>
-    <t>DE-1|Frame Relay Nuvem-3</t>
-  </si>
-  <si>
     <t>5001:DDDD:9A9B:C4EE::/64</t>
   </si>
   <si>
@@ -270,15 +264,9 @@
     <t>UK-1 ABR|UK-2</t>
   </si>
   <si>
-    <t>UK-1 ABR|Frame Relay Nuvem 1</t>
-  </si>
-  <si>
     <t>6001:DDDD:2468:AABA::/64</t>
   </si>
   <si>
-    <t>5001:DDDD:9A9B:C4BA::/64</t>
-  </si>
-  <si>
     <t>20.20.20.1</t>
   </si>
   <si>
@@ -345,15 +333,6 @@
     <t>CA-4</t>
   </si>
   <si>
-    <t>Irlanda</t>
-  </si>
-  <si>
-    <t>IE-1 ABR|Frame Relay Nuvem 2</t>
-  </si>
-  <si>
-    <t>5001:DDDD:9A9B:C4AA::/64</t>
-  </si>
-  <si>
     <t>Escocia</t>
   </si>
   <si>
@@ -441,24 +420,9 @@
     <t>5001:DDDD:9A9B:C460::/64</t>
   </si>
   <si>
-    <t>Frame Relay Nuvem 1|Nuvem 2</t>
-  </si>
-  <si>
-    <t>Frame Relay Nuvem 2|IT-1 ABR</t>
-  </si>
-  <si>
-    <t>IT-1 ABR|Frame Relay Nuvem 3</t>
-  </si>
-  <si>
-    <t>Frame Relay Nuvem 3|CA-1 ASBR</t>
-  </si>
-  <si>
     <t>CA-1 ASBR|USA-1 ASBR</t>
   </si>
   <si>
-    <t>USA-1 ASBR|Frame Relay Nuvem 1</t>
-  </si>
-  <si>
     <t>DE-1</t>
   </si>
   <si>
@@ -520,13 +484,49 @@
   </si>
   <si>
     <t>Matheus Wintruff Macedo  Ra:148632</t>
+  </si>
+  <si>
+    <t>Concexao Frame Relay</t>
+  </si>
+  <si>
+    <t>Dlci Roteador 1</t>
+  </si>
+  <si>
+    <t>Dlci Roteador 2</t>
+  </si>
+  <si>
+    <t>SubRede IPV6</t>
+  </si>
+  <si>
+    <t>USA-1 ABSR|UK-1 ABR</t>
+  </si>
+  <si>
+    <t>UK-1 ABR|IE-1 ABR</t>
+  </si>
+  <si>
+    <t>IE-1 ABR|ES-1 ABR</t>
+  </si>
+  <si>
+    <t>ES-1 ABR|IT-1 ABR</t>
+  </si>
+  <si>
+    <t>IT-1 ABR|DE-1</t>
+  </si>
+  <si>
+    <t>DE-1|CA-1 ASBR</t>
+  </si>
+  <si>
+    <t>Todas Conexoes entre roteadores segue padrao de endereco finais 1 e 2 exemplo: Roteador 1:  6001:DDDD:2468:AACA::1/64 e Roteador 2: 6001:DDDD:2468:AACA::2/64</t>
+  </si>
+  <si>
+    <t>Todos Roteadores Lan tem seu Endereco Ipv6 seguindo padrao final ::1 (XXXX:XXXX:XXXX:XXXX::1/64) Exemplo: 300C:CCC:8910:BAF1::1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,8 +572,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,8 +665,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -722,11 +765,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,22 +808,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,86 +824,135 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,9 +962,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF91D5E3"/>
       <color rgb="FF9A82DC"/>
       <color rgb="FFE3B5E3"/>
-      <color rgb="FF91D5E3"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFE98F2B"/>
     </mruColors>
@@ -1189,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1F8E78-1813-4E87-9B9A-52F4EBCC8238}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,39 +1296,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="A1" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="45">
+      <c r="A2" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="60">
         <v>44109</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1258,17 +1346,17 @@
       <c r="E4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1277,52 +1365,52 @@
       <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="B6" s="57"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="B7" s="57"/>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1331,48 +1419,48 @@
       <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1381,24 +1469,24 @@
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1413,20 +1501,20 @@
       <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1435,44 +1523,44 @@
       <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1481,187 +1569,178 @@
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="1" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C22" s="43">
         <v>2</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D22" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="34">
+        <v>3</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="23">
-        <v>3</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -1670,379 +1749,397 @@
         <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G27" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="15">
+        <v>5</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="53">
+        <v>5</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="47">
+        <v>1</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="48"/>
+      <c r="B33" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="50">
+        <v>4</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="52"/>
+      <c r="B38" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="G41" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="H41" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="32">
+        <v>20</v>
+      </c>
+      <c r="C42" s="32">
+        <v>21</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="29">
+        <v>30</v>
+      </c>
+      <c r="C43" s="29">
+        <v>31</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="21">
-        <v>5</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="35">
-        <v>1</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="38">
-        <v>4</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="B44" s="32">
+        <v>40</v>
+      </c>
+      <c r="C44" s="32">
+        <v>41</v>
+      </c>
+      <c r="D44" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="7" t="s">
+      <c r="E44" s="38"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="29">
+        <v>50</v>
+      </c>
+      <c r="C45" s="29">
+        <v>51</v>
+      </c>
+      <c r="D45" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="7" t="s">
+      <c r="E45" s="38"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="32">
+        <v>60</v>
+      </c>
+      <c r="C46" s="32">
+        <v>61</v>
+      </c>
+      <c r="D46" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="7" t="s">
+      <c r="E46" s="38"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="29">
+        <v>70</v>
+      </c>
+      <c r="C47" s="29">
+        <v>71</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="29">
-        <v>0</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F5:H7"/>
-    <mergeCell ref="F8:H12"/>
-    <mergeCell ref="F13:H18"/>
-    <mergeCell ref="F4:H4"/>
+  <mergeCells count="39">
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="B5:B7"/>
@@ -2050,9 +2147,37 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F5:H7"/>
+    <mergeCell ref="F8:H12"/>
+    <mergeCell ref="F13:H18"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="E43:H47"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="A19:H19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
